--- a/文档/项目组内文档/项目进度把控表.xlsx
+++ b/文档/项目组内文档/项目进度把控表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
@@ -176,18 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做登录页面，进一步完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码页面，进一步完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>做ppt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,15 +193,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统的权限管理模块设置权限、编辑</t>
+    <t>系统的权限管理模块设置权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写、登录页面的制作与链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +224,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +260,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +357,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -386,7 +396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,6 +470,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -494,6 +505,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,14 +681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -687,115 +699,115 @@
     <col min="7" max="8" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="18">
+      <c r="B4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="18">
+      <c r="B6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="18">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="18">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -804,7 +816,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -813,17 +825,17 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="18">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -843,7 +855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -861,7 +873,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -879,7 +891,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -897,7 +909,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -915,7 +927,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -933,7 +945,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -951,7 +963,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -969,7 +981,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -987,7 +999,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1005,9 +1017,9 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
@@ -1023,7 +1035,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1041,7 +1053,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1059,8 +1071,8 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1069,15 +1081,17 @@
       <c r="C26" s="11">
         <v>42953</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="4">
+        <v>42953</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>20</v>
@@ -1085,13 +1099,15 @@
       <c r="C27" s="11">
         <v>42953</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="4">
+        <v>42953</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1101,13 +1117,15 @@
       <c r="C28" s="11">
         <v>42953</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="4">
+        <v>42953</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1117,13 +1135,15 @@
       <c r="C29" s="11">
         <v>42953</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="4">
+        <v>42953</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1133,13 +1153,15 @@
       <c r="C30" s="11">
         <v>42954</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="12">
+        <v>42954</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1149,13 +1171,15 @@
       <c r="C31" s="11">
         <v>42954</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="12">
+        <v>42954</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -1165,13 +1189,15 @@
       <c r="C32" s="11">
         <v>42954</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="4">
+        <v>42954</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1181,13 +1207,15 @@
       <c r="C33" s="11">
         <v>42954</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="4">
+        <v>42954</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1197,13 +1225,15 @@
       <c r="C34" s="11">
         <v>42955</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="4">
+        <v>42955</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1213,13 +1243,15 @@
       <c r="C35" s="11">
         <v>42955</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="4">
+        <v>42955</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -1229,13 +1261,15 @@
       <c r="C36" s="11">
         <v>42955</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="4">
+        <v>42955</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1245,77 +1279,87 @@
       <c r="C37" s="11">
         <v>42955</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="4">
+        <v>42955</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:24">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="11">
-        <v>42958</v>
-      </c>
-      <c r="D38" s="10"/>
+        <v>42957</v>
+      </c>
+      <c r="D38" s="4">
+        <v>42957</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:24">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="11">
-        <v>42958</v>
-      </c>
-      <c r="D39" s="10"/>
+        <v>42957</v>
+      </c>
+      <c r="D39" s="4">
+        <v>42957</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:24">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="11">
-        <v>42958</v>
-      </c>
-      <c r="D40" s="10"/>
+        <v>42957</v>
+      </c>
+      <c r="D40" s="4">
+        <v>42957</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="11">
-        <v>42958</v>
-      </c>
-      <c r="D41" s="10"/>
+        <v>42957</v>
+      </c>
+      <c r="D41" s="4">
+        <v>42957</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1324,14 +1368,14 @@
       <c r="F42" s="2"/>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="11"/>
       <c r="D43" s="10"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="11"/>
@@ -1339,7 +1383,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="11"/>
@@ -1347,7 +1391,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="11"/>
@@ -1355,7 +1399,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1363,7 +1407,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1371,7 +1415,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1379,7 +1423,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1387,7 +1431,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1395,7 +1439,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1403,7 +1447,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1411,7 +1455,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1419,7 +1463,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1427,7 +1471,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1435,7 +1479,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1443,7 +1487,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1451,7 +1495,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1459,7 +1503,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1467,7 +1511,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1475,7 +1519,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1483,7 +1527,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1491,7 +1535,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1499,7 +1543,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1507,7 +1551,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1515,7 +1559,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1523,7 +1567,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1531,7 +1575,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1539,7 +1583,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1547,7 +1591,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1574,12 +1618,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1587,12 +1631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
